--- a/Project documentation/Project Team members.xlsx
+++ b/Project documentation/Project Team members.xlsx
@@ -58,9 +58,6 @@
     <t xml:space="preserve">Group members </t>
   </si>
   <si>
-    <t xml:space="preserve">Gopal </t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Express - typescript with mongo db database </t>
+  </si>
+  <si>
+    <t>Gopal</t>
   </si>
 </sst>
 </file>
@@ -195,13 +195,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -527,7 +527,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,21 +555,21 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -590,13 +590,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="12"/>
@@ -623,21 +623,21 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -657,38 +657,38 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
